--- a/docs/StructureDefinition-SituacionDiscapacidad.xlsx
+++ b/docs/StructureDefinition-SituacionDiscapacidad.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Observacion - Situacion Discapacidad</t>
+    <t>Situacion Discapacidad</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T17:59:07-04:00</t>
+    <t>2023-08-10T11:42:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
   <si>
     <t>Description</t>
@@ -489,16 +495,224 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSTipoObservacion</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -520,7 +734,13 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSOrigenDiscapacidad</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -717,8 +937,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -731,13 +951,6 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -756,15 +969,6 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueBoolean</t>
-  </si>
-  <si>
-    <t>valueBoolean</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -872,9 +1076,6 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
@@ -1008,29 +1209,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1253,21 +1432,11 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1450,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1543,28 +1712,28 @@
         <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1604,6 +1773,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1624,7 +1801,6 @@
   <cols>
     <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
@@ -1645,15 +1821,16 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.8125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.75" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="20.46484375" customWidth="true" bestFit="true"/>
@@ -1666,6160 +1843,7362 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF1" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG1" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH1" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP1" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Z15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AO15" t="s" s="2">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>166</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>234</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>234</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>37</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>278</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>296</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>305</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>312</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>37</v>
+        <v>284</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>94</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>37</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>96</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>37</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="AO36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>37</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>347</v>
+        <v>39</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>258</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>37</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>37</v>
+        <v>368</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>37</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>378</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>157</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>159</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>371</v>
+        <v>39</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>378</v>
+        <v>160</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>381</v>
+        <v>162</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>39</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>385</v>
+        <v>160</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>37</v>
+        <v>384</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>37</v>
+        <v>393</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>90</v>
+        <v>398</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>159</v>
+        <v>403</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>225</v>
+        <v>410</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>227</v>
+        <v>412</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>37</v>
+        <v>413</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>232</v>
+        <v>407</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>234</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>145</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>250</v>
+        <v>422</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>257</v>
+        <v>393</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>258</v>
+        <v>424</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>38</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AJ59" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AO51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>37</v>
+      <c r="AO59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP51">
+  <autoFilter ref="A1:AP61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7829,7 +9208,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-SituacionDiscapacidad.xlsx
+++ b/docs/StructureDefinition-SituacionDiscapacidad.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T11:42:08-04:00</t>
+    <t>2023-08-10T15:46:58-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -311,33 +311,54 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.extension:OrigenDiscapacidad</t>
+  </si>
+  <si>
+    <t>OrigenDiscapacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/fhir/ig/mpi/StructureDefinition/OrigenDiscapacidad}
+</t>
+  </si>
+  <si>
+    <t>Origen Discapacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -526,17 +550,13 @@
     <t>Observation.category.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -633,6 +653,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -937,10 +960,6 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -951,6 +970,13 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -967,6 +993,81 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding</t>
+  </si>
+  <si>
+    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSValoracionDesempeno</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.version</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.code</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.display</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Observation.value[x].text</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1437,6 +1538,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1790,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP61"/>
+  <dimension ref="A1:AP74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1799,8 +1904,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
@@ -1821,16 +1927,15 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.8125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.7265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.75" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="20.46484375" customWidth="true" bestFit="true"/>
@@ -2688,11 +2793,11 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>38</v>
@@ -2707,17 +2812,15 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>39</v>
@@ -2754,16 +2857,14 @@
         <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>99</v>
@@ -2790,7 +2891,7 @@
         <v>39</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>39</v>
@@ -2804,43 +2905,41 @@
         <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>39</v>
       </c>
@@ -2888,7 +2987,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -2897,7 +2996,7 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>100</v>
@@ -2912,7 +3011,7 @@
         <v>39</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>39</v>
@@ -2930,7 +3029,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2943,13 +3042,13 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>108</v>
@@ -2957,9 +3056,11 @@
       <c r="M10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>39</v>
@@ -3008,7 +3109,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -3020,22 +3121,22 @@
         <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>39</v>
@@ -3043,14 +3144,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3069,17 +3170,17 @@
         <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>39</v>
@@ -3128,7 +3229,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -3143,19 +3244,19 @@
         <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>39</v>
@@ -3163,14 +3264,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3189,18 +3290,18 @@
         <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>39</v>
       </c>
@@ -3248,7 +3349,7 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -3263,16 +3364,16 @@
         <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>39</v>
@@ -3283,33 +3384,33 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>134</v>
@@ -3320,9 +3421,7 @@
       <c r="N13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>39</v>
       </c>
@@ -3346,13 +3445,13 @@
         <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>39</v>
@@ -3370,13 +3469,13 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>39</v>
@@ -3385,19 +3484,19 @@
         <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>39</v>
@@ -3405,10 +3504,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3416,34 +3515,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>50</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>39</v>
@@ -3468,11 +3567,13 @@
         <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>39</v>
@@ -3490,13 +3591,13 @@
         <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
@@ -3505,19 +3606,19 @@
         <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>39</v>
@@ -3525,10 +3626,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3539,10 +3640,10 @@
         <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>39</v>
@@ -3551,16 +3652,20 @@
         <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>39</v>
       </c>
@@ -3584,13 +3689,11 @@
         <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>39</v>
@@ -3608,19 +3711,19 @@
         <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -3635,7 +3738,7 @@
         <v>160</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>39</v>
@@ -3643,21 +3746,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>39</v>
@@ -3669,17 +3772,15 @@
         <v>39</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>39</v>
@@ -3716,16 +3817,16 @@
         <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>166</v>
@@ -3734,13 +3835,13 @@
         <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -3752,7 +3853,7 @@
         <v>39</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>39</v>
@@ -3763,33 +3864,33 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>169</v>
@@ -3798,11 +3899,9 @@
         <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3838,19 +3937,19 @@
         <v>39</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -3862,7 +3961,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3871,10 +3970,10 @@
         <v>39</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>39</v>
@@ -3885,10 +3984,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3896,31 +3995,35 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3968,19 +4071,19 @@
         <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -3989,10 +4092,10 @@
         <v>39</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>39</v>
@@ -4003,21 +4106,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>39</v>
@@ -4029,17 +4132,15 @@
         <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>39</v>
@@ -4076,16 +4177,16 @@
         <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>166</v>
@@ -4094,13 +4195,13 @@
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -4112,7 +4213,7 @@
         <v>39</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>39</v>
@@ -4123,46 +4224,44 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>39</v>
       </c>
@@ -4198,31 +4297,31 @@
         <v>39</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -4231,10 +4330,10 @@
         <v>39</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>39</v>
@@ -4245,10 +4344,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4262,7 +4361,7 @@
         <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>39</v>
@@ -4271,18 +4370,20 @@
         <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>39</v>
       </c>
@@ -4330,7 +4431,7 @@
         <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
@@ -4351,10 +4452,10 @@
         <v>39</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>39</v>
@@ -4365,10 +4466,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4376,13 +4477,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>39</v>
@@ -4391,18 +4492,18 @@
         <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>39</v>
       </c>
@@ -4450,7 +4551,7 @@
         <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -4471,10 +4572,10 @@
         <v>39</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>39</v>
@@ -4485,10 +4586,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4496,13 +4597,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>39</v>
@@ -4511,17 +4612,17 @@
         <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>39</v>
@@ -4531,7 +4632,7 @@
         <v>39</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>39</v>
@@ -4616,13 +4717,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>39</v>
@@ -4631,19 +4732,17 @@
         <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>39</v>
@@ -4653,7 +4752,7 @@
         <v>39</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>39</v>
@@ -4692,7 +4791,7 @@
         <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
@@ -4713,10 +4812,10 @@
         <v>39</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>39</v>
@@ -4727,10 +4826,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4753,19 +4852,19 @@
         <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>39</v>
@@ -4814,7 +4913,7 @@
         <v>39</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -4835,10 +4934,10 @@
         <v>39</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>39</v>
@@ -4849,18 +4948,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>49</v>
@@ -4875,19 +4974,19 @@
         <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>39</v>
@@ -4912,13 +5011,13 @@
         <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>39</v>
@@ -4936,10 +5035,10 @@
         <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>49</v>
@@ -4951,38 +5050,38 @@
         <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>238</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>49</v>
@@ -4997,19 +5096,19 @@
         <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>39</v>
@@ -5034,13 +5133,13 @@
         <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>39</v>
@@ -5058,10 +5157,10 @@
         <v>39</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>49</v>
@@ -5073,30 +5172,30 @@
         <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5107,7 +5206,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>39</v>
@@ -5119,18 +5218,20 @@
         <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>39</v>
       </c>
@@ -5178,13 +5279,13 @@
         <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>39</v>
@@ -5193,19 +5294,19 @@
         <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>39</v>
@@ -5213,21 +5314,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>39</v>
@@ -5250,9 +5351,7 @@
       <c r="N29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="O29" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>39</v>
       </c>
@@ -5300,13 +5399,13 @@
         <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>39</v>
@@ -5315,19 +5414,19 @@
         <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>39</v>
@@ -5335,14 +5434,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5361,19 +5460,19 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>39</v>
@@ -5422,7 +5521,7 @@
         <v>39</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -5437,19 +5536,19 @@
         <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>39</v>
@@ -5457,14 +5556,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5483,18 +5582,20 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>39</v>
       </c>
@@ -5542,7 +5643,7 @@
         <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -5557,19 +5658,19 @@
         <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>39</v>
@@ -5577,10 +5678,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5591,7 +5692,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -5603,18 +5704,18 @@
         <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>39</v>
       </c>
@@ -5662,13 +5763,13 @@
         <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>39</v>
@@ -5677,19 +5778,19 @@
         <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>39</v>
@@ -5697,10 +5798,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5711,7 +5812,7 @@
         <v>37</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>39</v>
@@ -5723,19 +5824,17 @@
         <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>39</v>
@@ -5784,45 +5883,45 @@
         <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>304</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5830,7 +5929,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>49</v>
@@ -5842,22 +5941,22 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>39</v>
@@ -5882,31 +5981,29 @@
         <v>39</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -5915,7 +6012,7 @@
         <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>61</v>
@@ -5924,62 +6021,64 @@
         <v>39</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>92</v>
+        <v>310</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>39</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>39</v>
@@ -6004,13 +6103,13 @@
         <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>39</v>
@@ -6028,16 +6127,16 @@
         <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>61</v>
@@ -6046,27 +6145,27 @@
         <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6077,7 +6176,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>39</v>
@@ -6089,20 +6188,16 @@
         <v>39</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>39</v>
       </c>
@@ -6150,19 +6245,19 @@
         <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>166</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
@@ -6171,10 +6266,10 @@
         <v>39</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>39</v>
@@ -6185,21 +6280,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>39</v>
@@ -6211,16 +6306,16 @@
         <v>39</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>169</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>170</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6246,69 +6341,69 @@
         <v>39</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>172</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>39</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>344</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6316,34 +6411,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>176</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>349</v>
+        <v>178</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>39</v>
@@ -6368,13 +6463,11 @@
         <v>39</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>39</v>
@@ -6392,13 +6485,13 @@
         <v>39</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>345</v>
+        <v>179</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>39</v>
@@ -6413,10 +6506,10 @@
         <v>39</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>180</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>39</v>
@@ -6427,10 +6520,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6453,17 +6546,15 @@
         <v>39</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>164</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>39</v>
@@ -6512,7 +6603,7 @@
         <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>166</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
@@ -6524,44 +6615,44 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>39</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>39</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>167</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>362</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>39</v>
@@ -6573,16 +6664,16 @@
         <v>39</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>364</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>169</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>170</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>110</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6620,57 +6711,57 @@
         <v>39</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>368</v>
+        <v>39</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>370</v>
+        <v>167</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>371</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6678,34 +6769,34 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>63</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>185</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>376</v>
+        <v>187</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>377</v>
+        <v>188</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>39</v>
@@ -6754,19 +6845,19 @@
         <v>39</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>189</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>378</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -6775,10 +6866,10 @@
         <v>39</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>190</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>380</v>
+        <v>191</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>39</v>
@@ -6789,10 +6880,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6812,18 +6903,20 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>39</v>
@@ -6872,7 +6965,7 @@
         <v>39</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -6884,7 +6977,7 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -6893,10 +6986,10 @@
         <v>39</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>39</v>
@@ -6907,44 +7000,44 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>39</v>
       </c>
@@ -6992,19 +7085,19 @@
         <v>39</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -7013,10 +7106,10 @@
         <v>39</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>39</v>
@@ -7027,45 +7120,43 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>384</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>208</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>39</v>
@@ -7114,19 +7205,19 @@
         <v>39</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>387</v>
+        <v>211</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -7135,10 +7226,10 @@
         <v>39</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>39</v>
@@ -7149,10 +7240,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7172,19 +7263,23 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>215</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>216</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>39</v>
       </c>
@@ -7232,7 +7327,7 @@
         <v>39</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>388</v>
+        <v>220</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
@@ -7241,7 +7336,7 @@
         <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>61</v>
@@ -7253,10 +7348,10 @@
         <v>39</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>221</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>39</v>
@@ -7267,10 +7362,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7290,19 +7385,23 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>389</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>224</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>39</v>
       </c>
@@ -7350,7 +7449,7 @@
         <v>39</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
@@ -7359,7 +7458,7 @@
         <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>61</v>
@@ -7371,10 +7470,10 @@
         <v>39</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>393</v>
+        <v>229</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>398</v>
+        <v>230</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>39</v>
@@ -7385,10 +7484,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7411,19 +7510,19 @@
         <v>39</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>39</v>
@@ -7448,13 +7547,13 @@
         <v>39</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>39</v>
@@ -7472,7 +7571,7 @@
         <v>39</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -7481,7 +7580,7 @@
         <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>61</v>
@@ -7490,13 +7589,13 @@
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>406</v>
+        <v>39</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>407</v>
+        <v>92</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>39</v>
@@ -7507,14 +7606,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>39</v>
+        <v>349</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7533,19 +7632,19 @@
         <v>39</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>412</v>
+        <v>353</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>39</v>
@@ -7570,13 +7669,13 @@
         <v>39</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>39</v>
@@ -7594,7 +7693,7 @@
         <v>39</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -7612,27 +7711,27 @@
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>39</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7643,7 +7742,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>39</v>
@@ -7655,17 +7754,19 @@
         <v>39</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>39</v>
@@ -7714,13 +7815,13 @@
         <v>39</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>39</v>
@@ -7735,10 +7836,10 @@
         <v>39</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>39</v>
@@ -7749,10 +7850,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7775,15 +7876,17 @@
         <v>39</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>39</v>
@@ -7808,13 +7911,13 @@
         <v>39</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>39</v>
@@ -7832,7 +7935,7 @@
         <v>39</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -7850,27 +7953,27 @@
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>39</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7881,7 +7984,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>39</v>
@@ -7890,21 +7993,23 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>154</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>39</v>
       </c>
@@ -7928,13 +8033,13 @@
         <v>39</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>39</v>
+        <v>383</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>39</v>
+        <v>384</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>39</v>
@@ -7952,13 +8057,13 @@
         <v>39</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>39</v>
@@ -7973,10 +8078,10 @@
         <v>39</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>39</v>
@@ -7987,10 +8092,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8001,7 +8106,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>39</v>
@@ -8010,19 +8115,19 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8072,13 +8177,13 @@
         <v>39</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>39</v>
@@ -8090,27 +8195,27 @@
         <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>39</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8121,7 +8226,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>39</v>
@@ -8130,23 +8235,21 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>39</v>
       </c>
@@ -8194,13 +8297,13 @@
         <v>39</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>39</v>
@@ -8212,27 +8315,27 @@
         <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>39</v>
+        <v>401</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>39</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8243,7 +8346,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>39</v>
@@ -8255,16 +8358,20 @@
         <v>39</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>39</v>
       </c>
@@ -8312,19 +8419,19 @@
         <v>39</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>159</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>39</v>
+        <v>411</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -8333,10 +8440,10 @@
         <v>39</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>39</v>
@@ -8347,21 +8454,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>39</v>
@@ -8373,17 +8480,15 @@
         <v>39</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>39</v>
@@ -8438,13 +8543,13 @@
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -8456,7 +8561,7 @@
         <v>39</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>39</v>
@@ -8467,14 +8572,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>384</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8487,26 +8592,24 @@
         <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>385</v>
+        <v>169</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>386</v>
+        <v>170</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>39</v>
       </c>
@@ -8554,7 +8657,7 @@
         <v>39</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>387</v>
+        <v>172</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
@@ -8578,7 +8681,7 @@
         <v>39</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>39</v>
@@ -8589,45 +8692,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>39</v>
+        <v>417</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>451</v>
+        <v>110</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>39</v>
@@ -8652,13 +8755,13 @@
         <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>39</v>
@@ -8676,34 +8779,34 @@
         <v>39</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>452</v>
+        <v>39</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>39</v>
@@ -8711,10 +8814,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8734,23 +8837,19 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>295</v>
+        <v>422</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>39</v>
       </c>
@@ -8798,7 +8897,7 @@
         <v>39</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -8807,7 +8906,7 @@
         <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>61</v>
@@ -8816,27 +8915,27 @@
         <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>456</v>
+        <v>39</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>302</v>
+        <v>426</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>303</v>
+        <v>427</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>304</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8859,20 +8958,16 @@
         <v>39</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>147</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>39</v>
       </c>
@@ -8896,13 +8991,13 @@
         <v>39</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>39</v>
@@ -8920,7 +9015,7 @@
         <v>39</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
@@ -8929,7 +9024,7 @@
         <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>313</v>
+        <v>425</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>61</v>
@@ -8941,10 +9036,10 @@
         <v>39</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>314</v>
+        <v>431</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>39</v>
@@ -8955,21 +9050,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>39</v>
@@ -8981,19 +9076,19 @@
         <v>39</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>320</v>
+        <v>436</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>39</v>
@@ -9018,13 +9113,13 @@
         <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>321</v>
+        <v>437</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>322</v>
+        <v>438</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>39</v>
@@ -9042,13 +9137,13 @@
         <v>39</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>39</v>
@@ -9060,27 +9155,27 @@
         <v>39</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>323</v>
+        <v>439</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>324</v>
+        <v>440</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>326</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9103,19 +9198,19 @@
         <v>39</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>39</v>
@@ -9140,13 +9235,13 @@
         <v>39</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>39</v>
+        <v>446</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>39</v>
+        <v>447</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>39</v>
@@ -9164,7 +9259,7 @@
         <v>39</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
@@ -9182,23 +9277,1593 @@
         <v>39</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP61" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP61">
+  <autoFilter ref="A1:AP74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9208,7 +10873,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-SituacionDiscapacidad.xlsx
+++ b/docs/StructureDefinition-SituacionDiscapacidad.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:46:58-04:00</t>
+    <t>2023-09-04T11:09:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2045,19 +2049,19 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>39</v>
@@ -2068,10 +2072,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2082,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -2091,19 +2095,19 @@
         <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2153,13 +2157,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -2188,10 +2192,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2202,7 +2206,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>39</v>
@@ -2211,16 +2215,16 @@
         <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2271,19 +2275,19 @@
         <v>39</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -2306,10 +2310,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2320,28 +2324,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2391,19 +2395,19 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -2426,10 +2430,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2440,7 +2444,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>39</v>
@@ -2452,16 +2456,16 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2487,13 +2491,13 @@
         <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>39</v>
@@ -2511,19 +2515,19 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -2546,21 +2550,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>39</v>
@@ -2572,16 +2576,16 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2631,19 +2635,19 @@
         <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -2655,7 +2659,7 @@
         <v>39</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>39</v>
@@ -2666,14 +2670,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2692,16 +2696,16 @@
         <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2751,7 +2755,7 @@
         <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -2775,7 +2779,7 @@
         <v>39</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>39</v>
@@ -2786,10 +2790,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2797,7 +2801,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>38</v>
@@ -2812,13 +2816,13 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2857,17 +2861,17 @@
         <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -2879,7 +2883,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2902,26 +2906,26 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>39</v>
@@ -2930,13 +2934,13 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2987,7 +2991,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -2996,10 +3000,10 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -3022,14 +3026,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3042,25 +3046,25 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>39</v>
@@ -3109,7 +3113,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -3121,7 +3125,7 @@
         <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -3133,7 +3137,7 @@
         <v>39</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>39</v>
@@ -3144,10 +3148,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3167,20 +3171,20 @@
         <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>39</v>
@@ -3229,7 +3233,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -3241,22 +3245,22 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>39</v>
@@ -3264,14 +3268,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3287,20 +3291,20 @@
         <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>39</v>
@@ -3349,7 +3353,7 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -3361,19 +3365,19 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>39</v>
@@ -3384,14 +3388,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3407,19 +3411,19 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3469,7 +3473,7 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -3481,19 +3485,19 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>39</v>
@@ -3504,10 +3508,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3515,34 +3519,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>39</v>
@@ -3567,13 +3571,13 @@
         <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>39</v>
@@ -3591,34 +3595,34 @@
         <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>39</v>
@@ -3626,10 +3630,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3643,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>39</v>
@@ -3652,19 +3656,19 @@
         <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>39</v>
@@ -3689,11 +3693,11 @@
         <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>39</v>
@@ -3711,7 +3715,7 @@
         <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
@@ -3723,7 +3727,7 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -3735,10 +3739,10 @@
         <v>39</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>39</v>
@@ -3746,10 +3750,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3760,7 +3764,7 @@
         <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>39</v>
@@ -3772,13 +3776,13 @@
         <v>39</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3829,13 +3833,13 @@
         <v>39</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>39</v>
@@ -3853,7 +3857,7 @@
         <v>39</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>39</v>
@@ -3864,14 +3868,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3890,16 +3894,16 @@
         <v>39</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3937,19 +3941,19 @@
         <v>39</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -3961,7 +3965,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3973,7 +3977,7 @@
         <v>39</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>39</v>
@@ -3984,10 +3988,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3995,34 +3999,34 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>39</v>
@@ -4071,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -4083,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -4092,10 +4096,10 @@
         <v>39</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>39</v>
@@ -4106,10 +4110,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4120,7 +4124,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>39</v>
@@ -4132,13 +4136,13 @@
         <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4189,13 +4193,13 @@
         <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>39</v>
@@ -4213,7 +4217,7 @@
         <v>39</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>39</v>
@@ -4224,14 +4228,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4250,16 +4254,16 @@
         <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4297,19 +4301,19 @@
         <v>39</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -4321,7 +4325,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -4333,7 +4337,7 @@
         <v>39</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>39</v>
@@ -4344,10 +4348,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4358,31 +4362,31 @@
         <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>39</v>
@@ -4431,19 +4435,19 @@
         <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -4452,10 +4456,10 @@
         <v>39</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>39</v>
@@ -4466,10 +4470,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4480,7 +4484,7 @@
         <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -4489,19 +4493,19 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4551,19 +4555,19 @@
         <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -4572,10 +4576,10 @@
         <v>39</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>39</v>
@@ -4586,10 +4590,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4597,32 +4601,32 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>39</v>
@@ -4632,7 +4636,7 @@
         <v>39</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>39</v>
@@ -4671,19 +4675,19 @@
         <v>39</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -4692,10 +4696,10 @@
         <v>39</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>39</v>
@@ -4706,10 +4710,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4717,32 +4721,32 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>39</v>
@@ -4791,19 +4795,19 @@
         <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -4812,10 +4816,10 @@
         <v>39</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>39</v>
@@ -4826,10 +4830,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4840,7 +4844,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>39</v>
@@ -4849,22 +4853,22 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>39</v>
@@ -4913,19 +4917,19 @@
         <v>39</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -4934,10 +4938,10 @@
         <v>39</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>39</v>
@@ -4948,10 +4952,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4962,7 +4966,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>39</v>
@@ -4971,22 +4975,22 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>39</v>
@@ -5035,19 +5039,19 @@
         <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -5056,10 +5060,10 @@
         <v>39</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>39</v>
@@ -5070,21 +5074,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
@@ -5093,22 +5097,22 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>39</v>
@@ -5133,13 +5137,13 @@
         <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>39</v>
@@ -5157,45 +5161,45 @@
         <v>39</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5206,7 +5210,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>39</v>
@@ -5215,22 +5219,22 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>39</v>
@@ -5279,34 +5283,34 @@
         <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>39</v>
@@ -5314,10 +5318,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5337,19 +5341,19 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5399,7 +5403,7 @@
         <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -5411,7 +5415,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -5420,13 +5424,13 @@
         <v>39</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>39</v>
@@ -5434,21 +5438,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>39</v>
@@ -5457,22 +5461,22 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>39</v>
@@ -5521,34 +5525,34 @@
         <v>39</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>39</v>
@@ -5556,21 +5560,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>39</v>
@@ -5579,22 +5583,22 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>39</v>
@@ -5643,34 +5647,34 @@
         <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>39</v>
@@ -5678,10 +5682,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5692,7 +5696,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>39</v>
@@ -5701,19 +5705,19 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5763,19 +5767,19 @@
         <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -5784,13 +5788,13 @@
         <v>39</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>39</v>
@@ -5798,10 +5802,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5821,20 +5825,20 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>39</v>
@@ -5883,7 +5887,7 @@
         <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
@@ -5895,22 +5899,22 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>39</v>
@@ -5918,10 +5922,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5929,10 +5933,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>39</v>
@@ -5941,22 +5945,22 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>39</v>
@@ -5993,92 +5997,92 @@
         <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>39</v>
@@ -6127,45 +6131,45 @@
         <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6176,7 +6180,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>39</v>
@@ -6188,13 +6192,13 @@
         <v>39</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6245,13 +6249,13 @@
         <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>39</v>
@@ -6269,7 +6273,7 @@
         <v>39</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>39</v>
@@ -6280,14 +6284,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6306,16 +6310,16 @@
         <v>39</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6353,19 +6357,19 @@
         <v>39</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
@@ -6377,7 +6381,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -6389,7 +6393,7 @@
         <v>39</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>39</v>
@@ -6400,10 +6404,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6411,34 +6415,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>39</v>
@@ -6463,11 +6467,11 @@
         <v>39</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>39</v>
@@ -6485,7 +6489,7 @@
         <v>39</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -6497,7 +6501,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -6506,10 +6510,10 @@
         <v>39</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>39</v>
@@ -6520,10 +6524,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6534,7 +6538,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -6546,13 +6550,13 @@
         <v>39</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6603,13 +6607,13 @@
         <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>39</v>
@@ -6627,7 +6631,7 @@
         <v>39</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>39</v>
@@ -6638,14 +6642,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6664,16 +6668,16 @@
         <v>39</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6711,19 +6715,19 @@
         <v>39</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
@@ -6735,7 +6739,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -6747,7 +6751,7 @@
         <v>39</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>39</v>
@@ -6758,10 +6762,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6769,34 +6773,34 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>39</v>
@@ -6845,19 +6849,19 @@
         <v>39</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -6866,10 +6870,10 @@
         <v>39</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>39</v>
@@ -6880,10 +6884,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6894,7 +6898,7 @@
         <v>37</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>39</v>
@@ -6903,19 +6907,19 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6965,19 +6969,19 @@
         <v>39</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
@@ -6986,10 +6990,10 @@
         <v>39</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>39</v>
@@ -7000,10 +7004,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7011,32 +7015,32 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>39</v>
@@ -7085,19 +7089,19 @@
         <v>39</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -7106,10 +7110,10 @@
         <v>39</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>39</v>
@@ -7120,10 +7124,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7134,29 +7138,29 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>39</v>
@@ -7205,19 +7209,19 @@
         <v>39</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -7226,10 +7230,10 @@
         <v>39</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>39</v>
@@ -7240,10 +7244,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7254,7 +7258,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>39</v>
@@ -7263,22 +7267,22 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>39</v>
@@ -7327,19 +7331,19 @@
         <v>39</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -7348,10 +7352,10 @@
         <v>39</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>39</v>
@@ -7362,10 +7366,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7376,7 +7380,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>39</v>
@@ -7385,22 +7389,22 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>39</v>
@@ -7449,19 +7453,19 @@
         <v>39</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -7470,10 +7474,10 @@
         <v>39</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>39</v>
@@ -7484,10 +7488,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7498,7 +7502,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>39</v>
@@ -7510,19 +7514,19 @@
         <v>39</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>39</v>
@@ -7547,13 +7551,13 @@
         <v>39</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>39</v>
@@ -7571,19 +7575,19 @@
         <v>39</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -7592,10 +7596,10 @@
         <v>39</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>39</v>
@@ -7606,14 +7610,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7632,19 +7636,19 @@
         <v>39</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>39</v>
@@ -7669,13 +7673,13 @@
         <v>39</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>39</v>
@@ -7693,7 +7697,7 @@
         <v>39</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -7705,33 +7709,33 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7754,19 +7758,19 @@
         <v>39</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>39</v>
@@ -7815,7 +7819,7 @@
         <v>39</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
@@ -7827,7 +7831,7 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -7836,10 +7840,10 @@
         <v>39</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>39</v>
@@ -7850,10 +7854,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7864,7 +7868,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>39</v>
@@ -7876,16 +7880,16 @@
         <v>39</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7911,13 +7915,13 @@
         <v>39</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>39</v>
@@ -7935,45 +7939,45 @@
         <v>39</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7984,7 +7988,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>39</v>
@@ -7996,19 +8000,19 @@
         <v>39</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>39</v>
@@ -8033,13 +8037,13 @@
         <v>39</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>39</v>
@@ -8057,19 +8061,19 @@
         <v>39</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -8078,10 +8082,10 @@
         <v>39</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>39</v>
@@ -8092,10 +8096,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8106,7 +8110,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>39</v>
@@ -8118,16 +8122,16 @@
         <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8177,45 +8181,45 @@
         <v>39</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8226,7 +8230,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>39</v>
@@ -8238,16 +8242,16 @@
         <v>39</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8297,45 +8301,45 @@
         <v>39</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8358,19 +8362,19 @@
         <v>39</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>39</v>
@@ -8419,7 +8423,7 @@
         <v>39</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
@@ -8431,7 +8435,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -8440,10 +8444,10 @@
         <v>39</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>39</v>
@@ -8454,10 +8458,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8468,7 +8472,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>39</v>
@@ -8480,13 +8484,13 @@
         <v>39</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8537,13 +8541,13 @@
         <v>39</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>39</v>
@@ -8561,7 +8565,7 @@
         <v>39</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>39</v>
@@ -8572,14 +8576,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8598,16 +8602,16 @@
         <v>39</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8657,7 +8661,7 @@
         <v>39</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
@@ -8669,7 +8673,7 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
@@ -8681,7 +8685,7 @@
         <v>39</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>39</v>
@@ -8692,14 +8696,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8712,25 +8716,25 @@
         <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>39</v>
@@ -8779,7 +8783,7 @@
         <v>39</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
@@ -8791,7 +8795,7 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
@@ -8803,7 +8807,7 @@
         <v>39</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>39</v>
@@ -8814,10 +8818,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8828,7 +8832,7 @@
         <v>37</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>39</v>
@@ -8840,13 +8844,13 @@
         <v>39</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8897,19 +8901,19 @@
         <v>39</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -8918,10 +8922,10 @@
         <v>39</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>39</v>
@@ -8932,10 +8936,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8946,7 +8950,7 @@
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>39</v>
@@ -8958,13 +8962,13 @@
         <v>39</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9015,19 +9019,19 @@
         <v>39</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
@@ -9036,10 +9040,10 @@
         <v>39</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>39</v>
@@ -9050,10 +9054,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9064,7 +9068,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>39</v>
@@ -9076,19 +9080,19 @@
         <v>39</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>39</v>
@@ -9113,13 +9117,13 @@
         <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>39</v>
@@ -9137,31 +9141,31 @@
         <v>39</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>39</v>
@@ -9172,10 +9176,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9198,19 +9202,19 @@
         <v>39</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>39</v>
@@ -9235,13 +9239,13 @@
         <v>39</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>39</v>
@@ -9259,7 +9263,7 @@
         <v>39</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
@@ -9271,19 +9275,19 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>39</v>
@@ -9294,10 +9298,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9308,7 +9312,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>39</v>
@@ -9320,17 +9324,17 @@
         <v>39</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>39</v>
@@ -9379,19 +9383,19 @@
         <v>39</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
@@ -9403,7 +9407,7 @@
         <v>39</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>39</v>
@@ -9414,10 +9418,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9428,7 +9432,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>39</v>
@@ -9440,13 +9444,13 @@
         <v>39</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9497,19 +9501,19 @@
         <v>39</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
@@ -9518,10 +9522,10 @@
         <v>39</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>39</v>
@@ -9532,10 +9536,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9555,19 +9559,19 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9617,7 +9621,7 @@
         <v>39</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
@@ -9629,7 +9633,7 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
@@ -9638,10 +9642,10 @@
         <v>39</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>39</v>
@@ -9652,10 +9656,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9675,19 +9679,19 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9737,7 +9741,7 @@
         <v>39</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
@@ -9749,7 +9753,7 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
@@ -9758,10 +9762,10 @@
         <v>39</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>39</v>
@@ -9772,10 +9776,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9795,22 +9799,22 @@
         <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>39</v>
@@ -9859,7 +9863,7 @@
         <v>39</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
@@ -9871,7 +9875,7 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
@@ -9880,10 +9884,10 @@
         <v>39</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>39</v>
@@ -9894,10 +9898,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9908,7 +9912,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>39</v>
@@ -9920,13 +9924,13 @@
         <v>39</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9977,13 +9981,13 @@
         <v>39</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>39</v>
@@ -10001,7 +10005,7 @@
         <v>39</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>39</v>
@@ -10012,14 +10016,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10038,16 +10042,16 @@
         <v>39</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10097,7 +10101,7 @@
         <v>39</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
@@ -10109,7 +10113,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
@@ -10121,7 +10125,7 @@
         <v>39</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>39</v>
@@ -10132,14 +10136,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10152,25 +10156,25 @@
         <v>39</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>39</v>
@@ -10219,7 +10223,7 @@
         <v>39</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
@@ -10231,7 +10235,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
@@ -10243,7 +10247,7 @@
         <v>39</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>39</v>
@@ -10254,10 +10258,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10265,10 +10269,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>39</v>
@@ -10277,22 +10281,22 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>39</v>
@@ -10317,13 +10321,13 @@
         <v>39</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>39</v>
@@ -10341,34 +10345,34 @@
         <v>39</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>39</v>
@@ -10376,10 +10380,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10390,7 +10394,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>39</v>
@@ -10399,22 +10403,22 @@
         <v>39</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>39</v>
@@ -10463,45 +10467,45 @@
         <v>39</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10512,7 +10516,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>39</v>
@@ -10524,19 +10528,19 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>39</v>
@@ -10561,13 +10565,13 @@
         <v>39</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>39</v>
@@ -10585,19 +10589,19 @@
         <v>39</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>39</v>
@@ -10606,10 +10610,10 @@
         <v>39</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>39</v>
@@ -10620,14 +10624,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10646,19 +10650,19 @@
         <v>39</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>39</v>
@@ -10683,13 +10687,13 @@
         <v>39</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>39</v>
@@ -10707,7 +10711,7 @@
         <v>39</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
@@ -10719,33 +10723,33 @@
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10771,16 +10775,16 @@
         <v>40</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>39</v>
@@ -10829,7 +10833,7 @@
         <v>39</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -10841,7 +10845,7 @@
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
@@ -10850,10 +10854,10 @@
         <v>39</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>39</v>
